--- a/DataDriven/TestData.xlsx
+++ b/DataDriven/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Sathya Natwet Projects\NatWestCaseStudy\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1EF2C7-00E2-46AF-BFAB-F125EEAA5194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981FE50-45C4-45BC-B83E-0B329142E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DataDriven/TestData.xlsx
+++ b/DataDriven/TestData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Sathya Natwet Projects\NatWestCaseStudy\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981FE50-45C4-45BC-B83E-0B329142E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC707012-3C58-48C7-A74E-237EA521358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
-  <si>
-    <t>EndpointURL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>https://swapi.dev/api/</t>
   </si>
@@ -101,6 +100,87 @@
   </si>
   <si>
     <t>planets/3/</t>
+  </si>
+  <si>
+    <t>people/1/</t>
+  </si>
+  <si>
+    <t>EndpointBaseURI</t>
+  </si>
+  <si>
+    <t>Request Base Path</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>starships/9</t>
+  </si>
+  <si>
+    <t>films/6</t>
+  </si>
+  <si>
+    <t>species/23</t>
+  </si>
+  <si>
+    <t>vehicles/14</t>
+  </si>
+  <si>
+    <t>people?search=Luke Skywalker</t>
+  </si>
+  <si>
+    <t>planets?search=Tatooine</t>
+  </si>
+  <si>
+    <t>films?search=count</t>
+  </si>
+  <si>
+    <t>species?language</t>
+  </si>
+  <si>
+    <t>vehicles/?name=Snowspeeder</t>
+  </si>
+  <si>
+    <t>Validate Response Code 404</t>
+  </si>
+  <si>
+    <t>peo1ple/1</t>
+  </si>
+  <si>
+    <t>p3eople?search=Luke Skywalker</t>
+  </si>
+  <si>
+    <t>pl4anets/3/</t>
+  </si>
+  <si>
+    <t>pla4nets?search=Tatooine</t>
+  </si>
+  <si>
+    <t>fi6lms/6</t>
+  </si>
+  <si>
+    <t>f2ilms?search=count</t>
+  </si>
+  <si>
+    <t>spegcies/23</t>
+  </si>
+  <si>
+    <t>specuies?language</t>
+  </si>
+  <si>
+    <t>vehi3cles/14</t>
+  </si>
+  <si>
+    <t>veh9icles/?name=Snowspeeder</t>
+  </si>
+  <si>
+    <t>s6arships/9</t>
+  </si>
+  <si>
+    <t>https://swapi.dev/api/%</t>
+  </si>
+  <si>
+    <t>https://swapi.dev/api/:</t>
   </si>
 </sst>
 </file>
@@ -446,82 +526,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{E4993A5A-C244-43D0-85E9-94FB61B3290D}"/>
-    <hyperlink ref="A2:A6" r:id="rId2" display="https://swapi.dev/api/" xr:uid="{82B68D35-4A93-400A-9E14-CABB0756E381}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{0C3F8A31-931A-454E-A27D-93885C88CC01}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{E4993A5A-C244-43D0-85E9-94FB61B3290D}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{0C3F8A31-931A-454E-A27D-93885C88CC01}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{6FBB6265-72C7-4A4A-8693-D71E9DA33800}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{1EFDBBF2-65D3-44DD-B9A5-8072C31FA6A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -544,24 +776,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,13 +815,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,13 +829,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -611,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>200404400</v>
@@ -638,4 +870,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29408FDB-23E5-470D-8085-F333BCC25FD5}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C67E2D-569B-405B-B73B-AB7BE84A5238}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>